--- a/GWR Outputs/GWR with Stroke.xlsx
+++ b/GWR Outputs/GWR with Stroke.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27511"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_F13D54F797C65E0E06B5784B6121E5B6A22DEC74" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F13D54F797C65E0E06B5784B6121E5B6A22DEC74" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7493E63F-55A8-4654-8D9D-39FDBF210CAC}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model 2 District-Level Summary" sheetId="1" r:id="rId1"/>
@@ -33,17 +33,28 @@
     <sheet name="Model 1 Parameters Summary" sheetId="23" r:id="rId23"/>
     <sheet name="Model 1_Sig" sheetId="24" r:id="rId24"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="611">
   <si>
     <t>Intercept</t>
   </si>
@@ -1390,6 +1401,9 @@
   </si>
   <si>
     <t>Woodstock, Stonesfield &amp; Tackley 004I</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
   <si>
     <t>E01028423</t>
@@ -1954,13 +1968,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2265,44 +2279,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="2" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1"/>
@@ -2649,33 +2663,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2">
@@ -2704,7 +2718,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3">
@@ -2733,7 +2747,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4">
@@ -2762,7 +2776,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5">
@@ -2791,7 +2805,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6">
@@ -2820,7 +2834,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7">
@@ -2849,7 +2863,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8">
@@ -2878,7 +2892,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9">
@@ -2907,7 +2921,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10">
@@ -2936,7 +2950,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11">
@@ -2965,7 +2979,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12">
@@ -2994,7 +3008,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13">
@@ -3023,7 +3037,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14">
@@ -3052,7 +3066,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15">
@@ -3081,7 +3095,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16">
@@ -3110,7 +3124,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17">
@@ -3139,7 +3153,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18">
@@ -3168,7 +3182,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19">
@@ -3197,7 +3211,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20">
@@ -3226,7 +3240,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21">
@@ -3255,7 +3269,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22">
@@ -3284,7 +3298,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23">
@@ -3313,7 +3327,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24">
@@ -3342,7 +3356,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25">
@@ -3371,7 +3385,7 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26">
@@ -3400,7 +3414,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27">
@@ -3429,7 +3443,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28">
@@ -3458,7 +3472,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29">
@@ -3487,7 +3501,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30">
@@ -3516,7 +3530,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31">
@@ -3545,7 +3559,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32">
@@ -3574,7 +3588,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33">
@@ -3603,7 +3617,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34">
@@ -3632,7 +3646,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35">
@@ -3661,7 +3675,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36">
@@ -3690,7 +3704,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37">
@@ -3719,7 +3733,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38">
@@ -3748,7 +3762,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39">
@@ -3777,7 +3791,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40">
@@ -3806,7 +3820,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41">
@@ -3835,7 +3849,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="4">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42">
@@ -3864,7 +3878,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="4">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43">
@@ -3893,7 +3907,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="4">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44">
@@ -3922,7 +3936,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="4">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45">
@@ -3951,7 +3965,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="4">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46">
@@ -3980,7 +3994,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="4">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47">
@@ -4009,7 +4023,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="4">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48">
@@ -4038,7 +4052,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="4">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49">
@@ -4067,7 +4081,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="4">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50">
@@ -4096,7 +4110,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="4">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
       <c r="B51">
@@ -4125,7 +4139,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="4">
+      <c r="A52" s="2">
         <v>50</v>
       </c>
       <c r="B52">
@@ -4154,7 +4168,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="4">
+      <c r="A53" s="2">
         <v>51</v>
       </c>
       <c r="B53">
@@ -4183,7 +4197,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="4">
+      <c r="A54" s="2">
         <v>52</v>
       </c>
       <c r="B54">
@@ -4212,7 +4226,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="4">
+      <c r="A55" s="2">
         <v>53</v>
       </c>
       <c r="B55">
@@ -4241,7 +4255,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="4">
+      <c r="A56" s="2">
         <v>54</v>
       </c>
       <c r="B56">
@@ -4270,7 +4284,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="4">
+      <c r="A57" s="2">
         <v>55</v>
       </c>
       <c r="B57">
@@ -4299,7 +4313,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="4">
+      <c r="A58" s="2">
         <v>56</v>
       </c>
       <c r="B58">
@@ -4328,7 +4342,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="4">
+      <c r="A59" s="2">
         <v>57</v>
       </c>
       <c r="B59">
@@ -4357,7 +4371,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="4">
+      <c r="A60" s="2">
         <v>58</v>
       </c>
       <c r="B60">
@@ -4386,7 +4400,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="4">
+      <c r="A61" s="2">
         <v>59</v>
       </c>
       <c r="B61">
@@ -4415,7 +4429,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="4">
+      <c r="A62" s="2">
         <v>60</v>
       </c>
       <c r="B62">
@@ -4444,7 +4458,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="4">
+      <c r="A63" s="2">
         <v>61</v>
       </c>
       <c r="B63">
@@ -4473,7 +4487,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="4">
+      <c r="A64" s="2">
         <v>62</v>
       </c>
       <c r="B64">
@@ -4502,7 +4516,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="4">
+      <c r="A65" s="2">
         <v>63</v>
       </c>
       <c r="B65">
@@ -4531,7 +4545,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="4">
+      <c r="A66" s="2">
         <v>64</v>
       </c>
       <c r="B66">
@@ -4560,7 +4574,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="4">
+      <c r="A67" s="2">
         <v>65</v>
       </c>
       <c r="B67">
@@ -4589,7 +4603,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="4">
+      <c r="A68" s="2">
         <v>66</v>
       </c>
       <c r="B68">
@@ -4618,7 +4632,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="4">
+      <c r="A69" s="2">
         <v>67</v>
       </c>
       <c r="B69">
@@ -4647,7 +4661,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="4">
+      <c r="A70" s="2">
         <v>68</v>
       </c>
       <c r="B70">
@@ -4676,7 +4690,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="4">
+      <c r="A71" s="2">
         <v>69</v>
       </c>
       <c r="B71">
@@ -4705,7 +4719,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="4">
+      <c r="A72" s="2">
         <v>70</v>
       </c>
       <c r="B72">
@@ -4734,7 +4748,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="4">
+      <c r="A73" s="2">
         <v>71</v>
       </c>
       <c r="B73">
@@ -4763,7 +4777,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="4">
+      <c r="A74" s="2">
         <v>72</v>
       </c>
       <c r="B74">
@@ -4792,7 +4806,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="4">
+      <c r="A75" s="2">
         <v>73</v>
       </c>
       <c r="B75">
@@ -4821,7 +4835,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="4">
+      <c r="A76" s="2">
         <v>74</v>
       </c>
       <c r="B76">
@@ -4850,7 +4864,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="4">
+      <c r="A77" s="2">
         <v>75</v>
       </c>
       <c r="B77">
@@ -4879,7 +4893,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="4">
+      <c r="A78" s="2">
         <v>76</v>
       </c>
       <c r="B78">
@@ -4908,7 +4922,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="4">
+      <c r="A79" s="2">
         <v>77</v>
       </c>
       <c r="B79">
@@ -4937,7 +4951,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="4">
+      <c r="A80" s="2">
         <v>78</v>
       </c>
       <c r="B80">
@@ -4966,7 +4980,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="4">
+      <c r="A81" s="2">
         <v>79</v>
       </c>
       <c r="B81">
@@ -4995,7 +5009,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="4">
+      <c r="A82" s="2">
         <v>80</v>
       </c>
       <c r="B82">
@@ -5024,7 +5038,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="4">
+      <c r="A83" s="2">
         <v>81</v>
       </c>
       <c r="B83">
@@ -5053,7 +5067,7 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="4">
+      <c r="A84" s="2">
         <v>82</v>
       </c>
       <c r="B84">
@@ -5082,7 +5096,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="4">
+      <c r="A85" s="2">
         <v>83</v>
       </c>
       <c r="B85">
@@ -5111,7 +5125,7 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="4">
+      <c r="A86" s="2">
         <v>84</v>
       </c>
       <c r="B86">
@@ -5140,7 +5154,7 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="4">
+      <c r="A87" s="2">
         <v>85</v>
       </c>
       <c r="B87">
@@ -5169,7 +5183,7 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="4">
+      <c r="A88" s="2">
         <v>86</v>
       </c>
       <c r="B88">
@@ -5198,7 +5212,7 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="4">
+      <c r="A89" s="2">
         <v>87</v>
       </c>
       <c r="B89">
@@ -5227,7 +5241,7 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="4">
+      <c r="A90" s="2">
         <v>88</v>
       </c>
       <c r="B90">
@@ -5256,7 +5270,7 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="4">
+      <c r="A91" s="2">
         <v>89</v>
       </c>
       <c r="B91">
@@ -5285,7 +5299,7 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="4">
+      <c r="A92" s="2">
         <v>90</v>
       </c>
       <c r="B92">
@@ -5314,7 +5328,7 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="4">
+      <c r="A93" s="2">
         <v>91</v>
       </c>
       <c r="B93">
@@ -5356,33 +5370,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2">
@@ -5411,7 +5425,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3">
@@ -5440,7 +5454,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4">
@@ -5469,7 +5483,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5">
@@ -5498,7 +5512,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6">
@@ -5527,7 +5541,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7">
@@ -5556,7 +5570,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8">
@@ -5598,33 +5612,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2">
@@ -5653,7 +5667,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3">
@@ -5682,7 +5696,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4">
@@ -5711,7 +5725,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5">
@@ -5740,7 +5754,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6">
@@ -5769,7 +5783,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7">
@@ -5798,7 +5812,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8">
@@ -5827,7 +5841,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9">
@@ -5856,7 +5870,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10">
@@ -5885,7 +5899,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11">
@@ -5914,7 +5928,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12">
@@ -5943,7 +5957,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13">
@@ -5972,7 +5986,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14">
@@ -6001,7 +6015,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15">
@@ -6030,7 +6044,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16">
@@ -6059,7 +6073,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17">
@@ -6088,7 +6102,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18">
@@ -6117,7 +6131,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19">
@@ -6146,7 +6160,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20">
@@ -6175,7 +6189,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21">
@@ -6204,7 +6218,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22">
@@ -6233,7 +6247,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23">
@@ -6262,7 +6276,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24">
@@ -6291,7 +6305,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25">
@@ -6320,7 +6334,7 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26">
@@ -6349,7 +6363,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27">
@@ -6378,7 +6392,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28">
@@ -6407,7 +6421,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29">
@@ -6436,7 +6450,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30">
@@ -6465,7 +6479,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31">
@@ -6494,7 +6508,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32">
@@ -6523,7 +6537,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33">
@@ -6552,7 +6566,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34">
@@ -6581,7 +6595,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35">
@@ -6610,7 +6624,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36">
@@ -6639,7 +6653,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37">
@@ -6668,7 +6682,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38">
@@ -6697,7 +6711,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39">
@@ -6726,7 +6740,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40">
@@ -6755,7 +6769,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41">
@@ -6784,7 +6798,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="4">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42">
@@ -6813,7 +6827,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="4">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43">
@@ -6842,7 +6856,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="4">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44">
@@ -6884,33 +6898,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2">
@@ -6939,7 +6953,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3">
@@ -6968,7 +6982,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4">
@@ -6997,7 +7011,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5">
@@ -7026,7 +7040,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6">
@@ -7055,7 +7069,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7">
@@ -7084,7 +7098,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8">
@@ -7113,7 +7127,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9">
@@ -7142,7 +7156,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10">
@@ -7171,7 +7185,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11">
@@ -7200,7 +7214,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12">
@@ -7229,7 +7243,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13">
@@ -7258,7 +7272,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14">
@@ -7287,7 +7301,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15">
@@ -7316,7 +7330,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16">
@@ -7345,7 +7359,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17">
@@ -7374,7 +7388,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18">
@@ -7403,7 +7417,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19">
@@ -7432,7 +7446,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20">
@@ -7474,33 +7488,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2">
@@ -7529,7 +7543,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3">
@@ -7558,7 +7572,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4">
@@ -7587,7 +7601,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5">
@@ -7616,7 +7630,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6">
@@ -7645,7 +7659,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7">
@@ -7674,7 +7688,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8">
@@ -7703,7 +7717,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9">
@@ -7732,7 +7746,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10">
@@ -7761,7 +7775,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11">
@@ -7790,7 +7804,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12">
@@ -7819,7 +7833,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13">
@@ -7848,7 +7862,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14">
@@ -7877,7 +7891,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15">
@@ -7906,7 +7920,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16">
@@ -7935,7 +7949,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17">
@@ -7964,7 +7978,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18">
@@ -7993,7 +8007,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19">
@@ -8022,7 +8036,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20">
@@ -8051,7 +8065,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21">
@@ -8080,7 +8094,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22">
@@ -8109,7 +8123,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23">
@@ -8138,7 +8152,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24">
@@ -8167,7 +8181,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25">
@@ -8196,7 +8210,7 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26">
@@ -8225,7 +8239,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27">
@@ -8254,7 +8268,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28">
@@ -8283,7 +8297,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29">
@@ -8312,7 +8326,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30">
@@ -8341,7 +8355,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31">
@@ -8370,7 +8384,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32">
@@ -8399,7 +8413,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33">
@@ -8428,7 +8442,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34">
@@ -8457,7 +8471,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35">
@@ -8486,7 +8500,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36">
@@ -8515,7 +8529,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37">
@@ -8544,7 +8558,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38">
@@ -8573,7 +8587,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39">
@@ -8602,7 +8616,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40">
@@ -8631,7 +8645,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41">
@@ -8668,38 +8682,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="4" t="s">
+      <c r="A1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2">
@@ -8728,20 +8745,20 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -8750,27 +8767,27 @@
         <v>-4.82</v>
       </c>
       <c r="H3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -8779,27 +8796,27 @@
         <v>-4.9889999999999999</v>
       </c>
       <c r="H4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -8808,27 +8825,27 @@
         <v>-5.4450000000000003</v>
       </c>
       <c r="H5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -8837,27 +8854,27 @@
         <v>-5.2709999999999999</v>
       </c>
       <c r="H6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -8866,27 +8883,27 @@
         <v>-5.3609999999999998</v>
       </c>
       <c r="H7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -8895,27 +8912,27 @@
         <v>-5.5049999999999999</v>
       </c>
       <c r="H8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -8924,27 +8941,27 @@
         <v>-5.5350000000000001</v>
       </c>
       <c r="H9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -8953,27 +8970,27 @@
         <v>-5.4089999999999998</v>
       </c>
       <c r="H10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E11" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -8982,27 +8999,27 @@
         <v>-5.4359999999999999</v>
       </c>
       <c r="H11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D12" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E12" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -9011,27 +9028,27 @@
         <v>-5.5519999999999996</v>
       </c>
       <c r="H12" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E13" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -9040,27 +9057,27 @@
         <v>-5.468</v>
       </c>
       <c r="H13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D14" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E14" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -9069,27 +9086,27 @@
         <v>-5.39</v>
       </c>
       <c r="H14" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D15" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E15" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -9098,27 +9115,27 @@
         <v>-5.4480000000000004</v>
       </c>
       <c r="H15" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D16" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E16" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -9127,27 +9144,27 @@
         <v>-5.2160000000000002</v>
       </c>
       <c r="H16" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D17" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E17" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -9156,27 +9173,27 @@
         <v>-5.55</v>
       </c>
       <c r="H17" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D18" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E18" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -9185,27 +9202,27 @@
         <v>-5.617</v>
       </c>
       <c r="H18" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D19" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E19" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -9214,27 +9231,27 @@
         <v>-5.577</v>
       </c>
       <c r="H19" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D20" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E20" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -9243,27 +9260,27 @@
         <v>-5.5629999999999997</v>
       </c>
       <c r="H20" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E21" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -9272,27 +9289,27 @@
         <v>-5.5380000000000003</v>
       </c>
       <c r="H21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D22" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E22" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -9301,27 +9318,27 @@
         <v>-5.5250000000000004</v>
       </c>
       <c r="H22" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D23" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E23" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -9330,27 +9347,27 @@
         <v>-5.6230000000000002</v>
       </c>
       <c r="H23" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D24" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E24" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -9359,27 +9376,27 @@
         <v>-5.5780000000000003</v>
       </c>
       <c r="H24" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D25" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E25" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -9388,27 +9405,27 @@
         <v>-5.6470000000000002</v>
       </c>
       <c r="H25" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D26" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E26" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -9417,27 +9434,27 @@
         <v>-5.5670000000000002</v>
       </c>
       <c r="H26" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D27" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E27" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -9446,27 +9463,27 @@
         <v>-5.5650000000000004</v>
       </c>
       <c r="H27" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I27" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D28" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E28" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -9475,27 +9492,27 @@
         <v>-5.6390000000000002</v>
       </c>
       <c r="H28" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I28" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D29" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E29" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -9504,27 +9521,27 @@
         <v>-5.6239999999999997</v>
       </c>
       <c r="H29" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30">
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D30" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E30" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -9533,27 +9550,27 @@
         <v>-5.6619999999999999</v>
       </c>
       <c r="H30" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31">
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D31" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E31" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -9562,27 +9579,27 @@
         <v>-5.6109999999999998</v>
       </c>
       <c r="H31" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I31" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D32" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E32" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -9591,27 +9608,27 @@
         <v>-5.5410000000000004</v>
       </c>
       <c r="H32" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D33" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E33" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -9620,27 +9637,27 @@
         <v>-5.476</v>
       </c>
       <c r="H33" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D34" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E34" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
@@ -9649,27 +9666,27 @@
         <v>-5.45</v>
       </c>
       <c r="H34" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D35" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E35" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -9678,27 +9695,27 @@
         <v>-5.4770000000000003</v>
       </c>
       <c r="H35" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I35" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D36" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E36" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -9707,27 +9724,27 @@
         <v>-5.56</v>
       </c>
       <c r="H36" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I36" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37">
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D37" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E37" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -9736,27 +9753,27 @@
         <v>-5.5259999999999998</v>
       </c>
       <c r="H37" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I37" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38">
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D38" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E38" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
@@ -9765,27 +9782,27 @@
         <v>-5.4980000000000002</v>
       </c>
       <c r="H38" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39">
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D39" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E39" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
@@ -9794,27 +9811,27 @@
         <v>-5.5149999999999997</v>
       </c>
       <c r="H39" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="I39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D40" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E40" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
@@ -9823,14 +9840,14 @@
         <v>-4.9039999999999999</v>
       </c>
       <c r="H40" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I40" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41">
@@ -9859,20 +9876,20 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="4">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42">
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D42" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E42" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
@@ -9881,27 +9898,27 @@
         <v>-4.9050000000000002</v>
       </c>
       <c r="H42" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I42" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="4">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D43" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E43" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
@@ -9910,27 +9927,27 @@
         <v>-4.2629999999999999</v>
       </c>
       <c r="H43" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="4">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D44" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E44" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
@@ -9939,27 +9956,27 @@
         <v>-4.1680000000000001</v>
       </c>
       <c r="H44" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="I44" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="4">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45">
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D45" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E45" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
@@ -9968,27 +9985,27 @@
         <v>-5.7859999999999996</v>
       </c>
       <c r="H45" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I45" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="4">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46">
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D46" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E46" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
@@ -9997,27 +10014,27 @@
         <v>-5.6070000000000002</v>
       </c>
       <c r="H46" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I46" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="4">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47">
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D47" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E47" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
@@ -10026,27 +10043,27 @@
         <v>-5.0449999999999999</v>
       </c>
       <c r="H47" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I47" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="4">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48">
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D48" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E48" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F48" t="s">
         <v>11</v>
@@ -10055,27 +10072,27 @@
         <v>-5.226</v>
       </c>
       <c r="H48" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="I48" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="4">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49">
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D49" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E49" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F49" t="s">
         <v>11</v>
@@ -10084,27 +10101,27 @@
         <v>-5.4180000000000001</v>
       </c>
       <c r="H49" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="I49" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="4">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50">
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D50" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E50" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
@@ -10113,27 +10130,27 @@
         <v>-4.0679999999999996</v>
       </c>
       <c r="H50" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I50" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="4">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
       <c r="B51">
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D51" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E51" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
@@ -10142,14 +10159,14 @@
         <v>-4.3719999999999999</v>
       </c>
       <c r="H51" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I51" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="4">
+      <c r="A52" s="2">
         <v>50</v>
       </c>
       <c r="B52">
@@ -10178,20 +10195,20 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="4">
+      <c r="A53" s="2">
         <v>51</v>
       </c>
       <c r="B53">
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D53" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E53" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -10200,27 +10217,27 @@
         <v>-3.2829999999999999</v>
       </c>
       <c r="H53" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I53" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="4">
+      <c r="A54" s="2">
         <v>52</v>
       </c>
       <c r="B54">
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D54" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E54" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -10229,14 +10246,14 @@
         <v>-2.8159999999999998</v>
       </c>
       <c r="H54" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I54" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="4">
+      <c r="A55" s="2">
         <v>53</v>
       </c>
       <c r="B55">
@@ -10265,7 +10282,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="4">
+      <c r="A56" s="2">
         <v>54</v>
       </c>
       <c r="B56">
@@ -10307,33 +10324,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2">
@@ -10362,20 +10379,20 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -10384,27 +10401,27 @@
         <v>-2.4860000000000002</v>
       </c>
       <c r="H3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -10413,27 +10430,27 @@
         <v>-2.4889999999999999</v>
       </c>
       <c r="H4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -10442,27 +10459,27 @@
         <v>-2.589</v>
       </c>
       <c r="H5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -10471,27 +10488,27 @@
         <v>-2.5529999999999999</v>
       </c>
       <c r="H6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -10500,27 +10517,27 @@
         <v>-2.5830000000000002</v>
       </c>
       <c r="H7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -10529,27 +10546,27 @@
         <v>-2.5870000000000002</v>
       </c>
       <c r="H8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -10558,27 +10575,27 @@
         <v>-2.5870000000000002</v>
       </c>
       <c r="H9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -10587,27 +10604,27 @@
         <v>-2.5710000000000002</v>
       </c>
       <c r="H10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E11" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -10616,27 +10633,27 @@
         <v>-2.5680000000000001</v>
       </c>
       <c r="H11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D12" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E12" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -10645,27 +10662,27 @@
         <v>-2.5750000000000002</v>
       </c>
       <c r="H12" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E13" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -10674,27 +10691,27 @@
         <v>-2.5649999999999999</v>
       </c>
       <c r="H13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D14" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E14" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -10703,27 +10720,27 @@
         <v>-2.5529999999999999</v>
       </c>
       <c r="H14" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D15" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E15" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -10732,27 +10749,27 @@
         <v>-2.581</v>
       </c>
       <c r="H15" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D16" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E16" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -10761,27 +10778,27 @@
         <v>-2.5129999999999999</v>
       </c>
       <c r="H16" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D17" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E17" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -10790,27 +10807,27 @@
         <v>-2.581</v>
       </c>
       <c r="H17" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D18" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E18" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -10819,27 +10836,27 @@
         <v>-2.59</v>
       </c>
       <c r="H18" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D19" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E19" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -10848,27 +10865,27 @@
         <v>-2.5840000000000001</v>
       </c>
       <c r="H19" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D20" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E20" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -10877,27 +10894,27 @@
         <v>-2.58</v>
       </c>
       <c r="H20" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E21" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -10906,27 +10923,27 @@
         <v>-2.5840000000000001</v>
       </c>
       <c r="H21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D22" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E22" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -10935,27 +10952,27 @@
         <v>-2.5779999999999998</v>
       </c>
       <c r="H22" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D23" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E23" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -10964,27 +10981,27 @@
         <v>-2.573</v>
       </c>
       <c r="H23" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D24" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E24" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -10993,27 +11010,27 @@
         <v>-2.5790000000000002</v>
       </c>
       <c r="H24" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D25" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E25" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -11022,27 +11039,27 @@
         <v>-2.5659999999999998</v>
       </c>
       <c r="H25" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D26" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E26" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -11051,27 +11068,27 @@
         <v>-2.5230000000000001</v>
       </c>
       <c r="H26" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D27" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E27" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -11080,27 +11097,27 @@
         <v>-2.5430000000000001</v>
       </c>
       <c r="H27" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I27" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D28" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E28" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -11109,27 +11126,27 @@
         <v>-2.5419999999999998</v>
       </c>
       <c r="H28" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I28" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D29" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E29" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -11138,27 +11155,27 @@
         <v>-2.5430000000000001</v>
       </c>
       <c r="H29" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30">
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D30" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E30" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -11167,27 +11184,27 @@
         <v>-2.58</v>
       </c>
       <c r="H30" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31">
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D31" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E31" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -11196,27 +11213,27 @@
         <v>-2.5739999999999998</v>
       </c>
       <c r="H31" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I31" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D32" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E32" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -11225,27 +11242,27 @@
         <v>-2.56</v>
       </c>
       <c r="H32" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D33" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E33" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -11254,27 +11271,27 @@
         <v>-2.5489999999999999</v>
       </c>
       <c r="H33" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D34" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E34" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
@@ -11283,27 +11300,27 @@
         <v>-2.5379999999999998</v>
       </c>
       <c r="H34" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D35" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E35" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -11312,27 +11329,27 @@
         <v>-2.5310000000000001</v>
       </c>
       <c r="H35" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I35" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D36" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E36" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -11341,27 +11358,27 @@
         <v>-2.528</v>
       </c>
       <c r="H36" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I36" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37">
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D37" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E37" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -11370,27 +11387,27 @@
         <v>-2.5409999999999999</v>
       </c>
       <c r="H37" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I37" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38">
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D38" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E38" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
@@ -11399,27 +11416,27 @@
         <v>-2.5219999999999998</v>
       </c>
       <c r="H38" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39">
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D39" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E39" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
@@ -11428,27 +11445,27 @@
         <v>-2.5409999999999999</v>
       </c>
       <c r="H39" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="I39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D40" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E40" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
@@ -11457,27 +11474,27 @@
         <v>-2.4620000000000002</v>
       </c>
       <c r="H40" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I40" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41">
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D41" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E41" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
@@ -11486,27 +11503,27 @@
         <v>-2.4020000000000001</v>
       </c>
       <c r="H41" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I41" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="4">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42">
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D42" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E42" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
@@ -11515,27 +11532,27 @@
         <v>-2.3919999999999999</v>
       </c>
       <c r="H42" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="I42" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="4">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D43" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E43" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
@@ -11544,27 +11561,27 @@
         <v>-2.5590000000000002</v>
       </c>
       <c r="H43" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I43" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="4">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D44" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E44" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
@@ -11573,27 +11590,27 @@
         <v>-2.5510000000000002</v>
       </c>
       <c r="H44" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I44" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="4">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45">
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D45" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E45" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
@@ -11602,27 +11619,27 @@
         <v>-2.3820000000000001</v>
       </c>
       <c r="H45" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I45" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="4">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46">
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D46" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E46" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
@@ -11631,27 +11648,27 @@
         <v>-2.411</v>
       </c>
       <c r="H46" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="I46" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="4">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47">
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D47" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E47" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
@@ -11660,27 +11677,27 @@
         <v>-2.4769999999999999</v>
       </c>
       <c r="H47" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="I47" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="4">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48">
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D48" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E48" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F48" t="s">
         <v>11</v>
@@ -11689,14 +11706,14 @@
         <v>-2.3860000000000001</v>
       </c>
       <c r="H48" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I48" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="4">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49">
@@ -11725,7 +11742,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="4">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50">
@@ -11754,7 +11771,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="4">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
       <c r="B51">
@@ -11783,7 +11800,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="4">
+      <c r="A52" s="2">
         <v>50</v>
       </c>
       <c r="B52">
@@ -11812,7 +11829,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="4">
+      <c r="A53" s="2">
         <v>51</v>
       </c>
       <c r="B53">
@@ -11841,7 +11858,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="4">
+      <c r="A54" s="2">
         <v>52</v>
       </c>
       <c r="B54">
@@ -11870,7 +11887,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="4">
+      <c r="A55" s="2">
         <v>53</v>
       </c>
       <c r="B55">
@@ -11899,7 +11916,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="4">
+      <c r="A56" s="2">
         <v>54</v>
       </c>
       <c r="B56">
@@ -11928,7 +11945,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="4">
+      <c r="A57" s="2">
         <v>55</v>
       </c>
       <c r="B57">
@@ -11957,7 +11974,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="4">
+      <c r="A58" s="2">
         <v>56</v>
       </c>
       <c r="B58">
@@ -11986,7 +12003,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="4">
+      <c r="A59" s="2">
         <v>57</v>
       </c>
       <c r="B59">
@@ -12015,7 +12032,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="4">
+      <c r="A60" s="2">
         <v>58</v>
       </c>
       <c r="B60">
@@ -12044,7 +12061,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="4">
+      <c r="A61" s="2">
         <v>59</v>
       </c>
       <c r="B61">
@@ -12073,7 +12090,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="4">
+      <c r="A62" s="2">
         <v>60</v>
       </c>
       <c r="B62">
@@ -12102,7 +12119,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="4">
+      <c r="A63" s="2">
         <v>61</v>
       </c>
       <c r="B63">
@@ -12131,7 +12148,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="4">
+      <c r="A64" s="2">
         <v>62</v>
       </c>
       <c r="B64">
@@ -12160,7 +12177,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="4">
+      <c r="A65" s="2">
         <v>63</v>
       </c>
       <c r="B65">
@@ -12189,20 +12206,20 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="4">
+      <c r="A66" s="2">
         <v>64</v>
       </c>
       <c r="B66">
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D66" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E66" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -12211,14 +12228,14 @@
         <v>-3.7719999999999998</v>
       </c>
       <c r="H66" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I66" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="4">
+      <c r="A67" s="2">
         <v>65</v>
       </c>
       <c r="B67">
@@ -12247,7 +12264,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="4">
+      <c r="A68" s="2">
         <v>66</v>
       </c>
       <c r="B68">
@@ -12276,7 +12293,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="4">
+      <c r="A69" s="2">
         <v>67</v>
       </c>
       <c r="B69">
@@ -12305,20 +12322,20 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="4">
+      <c r="A70" s="2">
         <v>68</v>
       </c>
       <c r="B70">
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D70" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E70" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
@@ -12327,14 +12344,14 @@
         <v>-3.6259999999999999</v>
       </c>
       <c r="H70" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I70" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="4">
+      <c r="A71" s="2">
         <v>69</v>
       </c>
       <c r="B71">
@@ -12363,7 +12380,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="4">
+      <c r="A72" s="2">
         <v>70</v>
       </c>
       <c r="B72">
@@ -12392,20 +12409,20 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="4">
+      <c r="A73" s="2">
         <v>71</v>
       </c>
       <c r="B73">
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D73" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E73" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F73" t="s">
         <v>14</v>
@@ -12414,14 +12431,14 @@
         <v>-3.29</v>
       </c>
       <c r="H73" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I73" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="4">
+      <c r="A74" s="2">
         <v>72</v>
       </c>
       <c r="B74">
@@ -12463,27 +12480,27 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -12506,7 +12523,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -12529,7 +12546,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -12552,7 +12569,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -12575,7 +12592,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -12598,7 +12615,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -12621,7 +12638,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -12644,7 +12661,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -12667,7 +12684,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -12703,27 +12720,27 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -12746,7 +12763,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -12769,7 +12786,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -12805,27 +12822,27 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -12848,7 +12865,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -12871,7 +12888,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -12894,7 +12911,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -12917,7 +12934,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -12940,7 +12957,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -12963,7 +12980,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -12986,7 +13003,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -13017,32 +13034,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -13065,7 +13084,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -13088,7 +13107,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -13111,7 +13130,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -13134,7 +13153,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -13157,7 +13176,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -13180,7 +13199,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -13203,7 +13222,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -13239,27 +13258,27 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -13282,7 +13301,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -13305,7 +13324,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -13328,7 +13347,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -13351,7 +13370,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -13374,7 +13393,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -13410,27 +13429,27 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -13453,7 +13472,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -13476,7 +13495,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -13499,7 +13518,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -13522,7 +13541,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -13558,27 +13577,27 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -13601,7 +13620,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -13624,7 +13643,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -13647,7 +13666,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -13670,7 +13689,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -13693,7 +13712,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -13716,7 +13735,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -13739,7 +13758,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -13770,32 +13789,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -13818,11 +13839,11 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C3">
         <v>0.60499999999999998</v>
@@ -13854,27 +13875,27 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
@@ -13894,7 +13915,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3">
@@ -13914,7 +13935,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4">
@@ -13934,7 +13955,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B5">
@@ -13967,33 +13988,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -14022,7 +14043,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -14051,7 +14072,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -14080,7 +14101,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -14122,33 +14143,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -14177,7 +14198,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -14219,33 +14240,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -14274,7 +14295,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -14303,7 +14324,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -14345,33 +14366,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -14400,7 +14421,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -14442,33 +14463,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -14497,7 +14518,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -14526,7 +14547,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -14555,7 +14576,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -14597,33 +14618,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -14652,7 +14673,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -14681,7 +14702,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -14723,33 +14744,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -14778,7 +14799,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -14807,7 +14828,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
